--- a/Generation/files/recipe/RecipeNames.xlsx
+++ b/Generation/files/recipe/RecipeNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Mondragon\POPBL\mubisofteco\Generation\files\recipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9588BD8-7B2F-4468-8DD8-9B1DDDCC47AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE2154E-47B3-4F75-85D7-43BDC4E8E5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
   <si>
     <t>NAME_EN</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Sinplea</t>
   </si>
   <si>
-    <t>Betelan</t>
-  </si>
-  <si>
     <t>Etxeko</t>
   </si>
   <si>
@@ -298,6 +295,15 @@
   </si>
   <si>
     <t>Irabiatua</t>
+  </si>
+  <si>
+    <t>Sofritoa</t>
+  </si>
+  <si>
+    <t>rekin</t>
+  </si>
+  <si>
+    <t>Betelana</t>
   </si>
 </sst>
 </file>
@@ -652,7 +658,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +724,9 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -756,7 +764,9 @@
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -794,7 +804,9 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -832,7 +844,9 @@
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -870,7 +884,9 @@
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -900,13 +916,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
@@ -925,6 +944,9 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -942,6 +964,9 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -959,6 +984,9 @@
       <c r="E10" t="s">
         <v>18</v>
       </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -976,6 +1004,9 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -993,6 +1024,9 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1010,6 +1044,9 @@
       <c r="E13" t="s">
         <v>17</v>
       </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1027,6 +1064,9 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1044,6 +1084,9 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1061,8 +1104,11 @@
       <c r="E16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>56</v>
       </c>
@@ -1078,8 +1124,11 @@
       <c r="E17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>44</v>
       </c>
@@ -1095,8 +1144,11 @@
       <c r="E18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
@@ -1112,8 +1164,11 @@
       <c r="E19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -1129,8 +1184,11 @@
       <c r="E20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
@@ -1146,8 +1204,11 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -1163,8 +1224,11 @@
       <c r="E22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -1172,7 +1236,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>32</v>
@@ -1180,8 +1244,11 @@
       <c r="E23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -1189,7 +1256,7 @@
         <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -1197,8 +1264,11 @@
       <c r="E24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
@@ -1206,7 +1276,7 @@
         <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -1214,8 +1284,11 @@
       <c r="E25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>52</v>
       </c>
@@ -1223,7 +1296,7 @@
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -1231,8 +1304,11 @@
       <c r="E26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1240,7 +1316,7 @@
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -1248,8 +1324,11 @@
       <c r="E27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1336,7 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
         <v>32</v>
@@ -1265,8 +1344,11 @@
       <c r="E28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
@@ -1274,7 +1356,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1282,8 +1364,11 @@
       <c r="E29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>55</v>
       </c>
@@ -1291,13 +1376,16 @@
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
